--- a/data/trans_dic/P25A$molestias-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25A$molestias-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09509663026888314</v>
+        <v>0.09127036661386805</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04900564321641231</v>
+        <v>0.05522057496752837</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03319367111645396</v>
+        <v>0.03552091075015939</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06950819315903616</v>
+        <v>0.06183584570495164</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07326677295487126</v>
+        <v>0.07970073336048092</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07798145116607505</v>
+        <v>0.07977310038115849</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0750580099372942</v>
+        <v>0.07360567975270614</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06358563651516377</v>
+        <v>0.06400276052448181</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2612201117301094</v>
+        <v>0.256938688820525</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1915828080901686</v>
+        <v>0.2051228578709144</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1521012659356576</v>
+        <v>0.1523403846580964</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1546703362632829</v>
+        <v>0.1581132987124612</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2797986660502659</v>
+        <v>0.2826726050165276</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2697092797140651</v>
+        <v>0.2710761583415276</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1958315337442788</v>
+        <v>0.1990193101948907</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1892474514659359</v>
+        <v>0.183709258503063</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.167180237005219</v>
+        <v>0.1654822971633344</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1155592112295739</v>
+        <v>0.1231529192157551</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02489573830005716</v>
+        <v>0.02517800499517314</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02796293670780764</v>
+        <v>0.03461085341292541</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09525930282647493</v>
+        <v>0.09896591255486756</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03567046669648665</v>
+        <v>0.03707596440115396</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05491920539672487</v>
+        <v>0.05269324478077209</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1314034299156931</v>
+        <v>0.132662189534122</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04202904012380708</v>
+        <v>0.04346583264654091</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05724178938913025</v>
+        <v>0.05744740842270172</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2911113689208689</v>
+        <v>0.3040213954942684</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1585863835541617</v>
+        <v>0.1680414313749186</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.151080408717449</v>
+        <v>0.1498526912199517</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3426621910869506</v>
+        <v>0.3653875338994462</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2008078723257567</v>
+        <v>0.2103099427971171</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2322215413185168</v>
+        <v>0.2222393135507579</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2837135806075666</v>
+        <v>0.278213920580853</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1461510942909603</v>
+        <v>0.1472388779385627</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1624426354970004</v>
+        <v>0.1614005325108871</v>
       </c>
     </row>
     <row r="10">
@@ -893,29 +893,29 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2272967989958894</v>
+        <v>0.2263468263335379</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08041178354238203</v>
+        <v>0.08209920337075842</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08788794552939637</v>
+        <v>0.08780136343705408</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0473652239236927</v>
+        <v>0.04263545584434871</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2097803553624633</v>
+        <v>0.2054380367868756</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.065775991417429</v>
+        <v>0.06648577068515731</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0852010129395849</v>
+        <v>0.08571093323856743</v>
       </c>
     </row>
     <row r="12">
@@ -926,29 +926,29 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4080872989072252</v>
+        <v>0.3986459972480568</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1785982316182299</v>
+        <v>0.1865827819659483</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.243731143809265</v>
+        <v>0.2402585142919702</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3815983008038331</v>
+        <v>0.3526116297941157</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.378422340681614</v>
+        <v>0.3330540747238117</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3620674268966174</v>
+        <v>0.3688965261824186</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1488283544835462</v>
+        <v>0.1562390409072788</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2217090554214465</v>
+        <v>0.2316038910839838</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1344398246219134</v>
+        <v>0.1360504877648564</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0771405406650712</v>
+        <v>0.07801399289047289</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1395661593823371</v>
+        <v>0.1388093479949147</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09261915187317342</v>
+        <v>0.09246326427112253</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03474394472160251</v>
+        <v>0.03613858236095722</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01125487782072229</v>
+        <v>0.01263853733916557</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1354007995528041</v>
+        <v>0.1374875638398835</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07145557826919521</v>
+        <v>0.07439712023350911</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.106758881167654</v>
+        <v>0.1112569406757626</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2232821946896719</v>
+        <v>0.2271988554078407</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1492927011566711</v>
+        <v>0.1469182525779673</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2474889052511896</v>
+        <v>0.251446781828731</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2894351959377931</v>
+        <v>0.2869974234832565</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1612096839621499</v>
+        <v>0.1615085448168329</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.110718690191772</v>
+        <v>0.1033213352304335</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2192531187391161</v>
+        <v>0.2171032301483969</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1340643844883804</v>
+        <v>0.1390914176678756</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1918271736681948</v>
+        <v>0.1911425425088351</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02987992233495439</v>
+        <v>0.03341761036375638</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0543968730289786</v>
+        <v>0.05654559754943642</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1415141146014146</v>
+        <v>0.1420695499836078</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08780800629754001</v>
+        <v>0.0922515127665615</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1541643562049788</v>
+        <v>0.1491906324605088</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07405593366964845</v>
+        <v>0.07150089756314017</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04223259031720024</v>
+        <v>0.04219366372708917</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1676953069163125</v>
+        <v>0.164819929817732</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1679031322274347</v>
+        <v>0.17918179997802</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1632920479103865</v>
+        <v>0.1639473856864387</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2881823116732709</v>
+        <v>0.2970789514319798</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3477968241555771</v>
+        <v>0.383653627843217</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1086737404182218</v>
+        <v>0.1045980191683355</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.354023973568591</v>
+        <v>0.3560268119186631</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2071392947570539</v>
+        <v>0.2026226689078701</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.121816181051501</v>
+        <v>0.1200371404779575</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.293046623105118</v>
+        <v>0.2914253793421643</v>
       </c>
     </row>
     <row r="19">
@@ -1221,22 +1221,22 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0198000272543802</v>
+        <v>0.01971561621955076</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06730286619382427</v>
+        <v>0.07642641727344719</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07514290334239083</v>
+        <v>0.08266360099522727</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01764916146479022</v>
+        <v>0.01777054753022412</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07198594119185268</v>
+        <v>0.07149289738269859</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.07719406479401157</v>
+        <v>0.07525588989390647</v>
       </c>
     </row>
     <row r="21">
@@ -1249,25 +1249,25 @@
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.7796465272050606</v>
+        <v>0.8111822778695094</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1980859778755733</v>
+        <v>0.1828046946837968</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2833917907850478</v>
+        <v>0.2787983497023329</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3424112420573468</v>
+        <v>0.3406473562086775</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1600555429171737</v>
+        <v>0.1801571512137483</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2720457969715757</v>
+        <v>0.2587716836193678</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3220452494310887</v>
+        <v>0.3235720926189633</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1596423781616803</v>
+        <v>0.1574818849537915</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08356989102812284</v>
+        <v>0.08554512908171695</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.127683014659122</v>
+        <v>0.1281642072574909</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1059772385465141</v>
+        <v>0.106804958988496</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06251712791619977</v>
+        <v>0.06240442903025999</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0984403491097805</v>
+        <v>0.1013826970510724</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1495288219627158</v>
+        <v>0.1504708595315897</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.08278612928709124</v>
+        <v>0.08269866818057162</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1287338292095281</v>
+        <v>0.1283176954448899</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2202307049927676</v>
+        <v>0.2180808047504315</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1300102799200624</v>
+        <v>0.1314242065405452</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.186582573894296</v>
+        <v>0.1902844161596026</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1956110983325092</v>
+        <v>0.189153360898776</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1223453714979323</v>
+        <v>0.129535751604574</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1775583025011556</v>
+        <v>0.1758249583447293</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2040175010776629</v>
+        <v>0.2015148671941155</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1194830226028526</v>
+        <v>0.1199520423191189</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1750793087738861</v>
+        <v>0.1726246955277586</v>
       </c>
     </row>
     <row r="25">
@@ -1607,31 +1607,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9118</v>
+        <v>8751</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5492</v>
+        <v>6189</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3099</v>
+        <v>3316</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3593</v>
+        <v>3197</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4498</v>
+        <v>4893</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>10445</v>
+        <v>10685</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>12292</v>
+        <v>12054</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>9840</v>
+        <v>9904</v>
       </c>
     </row>
     <row r="7">
@@ -1642,31 +1642,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25046</v>
+        <v>24635</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21471</v>
+        <v>22988</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14199</v>
+        <v>14221</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5888</v>
+        <v>6019</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>14465</v>
+        <v>14613</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>16559</v>
+        <v>16643</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>26231</v>
+        <v>26658</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>30993</v>
+        <v>30086</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>25871</v>
+        <v>25608</v>
       </c>
     </row>
     <row r="8">
@@ -1751,31 +1751,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9226</v>
+        <v>9832</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2239</v>
+        <v>2264</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2037</v>
+        <v>2522</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3854</v>
+        <v>4004</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1928</v>
+        <v>2004</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3676</v>
+        <v>3527</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15808</v>
+        <v>15959</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6051</v>
+        <v>6258</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>8002</v>
+        <v>8030</v>
       </c>
     </row>
     <row r="11">
@@ -1786,31 +1786,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>23242</v>
+        <v>24272</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14260</v>
+        <v>15111</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11007</v>
+        <v>10918</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13865</v>
+        <v>14785</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10855</v>
+        <v>11369</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>15543</v>
+        <v>14875</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>34131</v>
+        <v>33469</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>21043</v>
+        <v>21199</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>22707</v>
+        <v>22562</v>
       </c>
     </row>
     <row r="12">
@@ -1895,29 +1895,29 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>24253</v>
+        <v>24152</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>13026</v>
+        <v>13299</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8638</v>
+        <v>8629</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1155</v>
+        <v>1039</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>27498</v>
+        <v>26929</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>12968</v>
+        <v>13108</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>9498</v>
+        <v>9554</v>
       </c>
     </row>
     <row r="15">
@@ -1928,29 +1928,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>43545</v>
+        <v>42537</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28931</v>
+        <v>30224</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23955</v>
+        <v>23613</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9302</v>
+        <v>8595</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>4991</v>
+        <v>4393</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>47460</v>
+        <v>48355</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>29343</v>
+        <v>30804</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>24715</v>
+        <v>25818</v>
       </c>
     </row>
     <row r="16">
@@ -2035,31 +2035,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>36584</v>
+        <v>37022</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>24603</v>
+        <v>24882</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>31785</v>
+        <v>31613</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5867</v>
+        <v>5857</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3931</v>
+        <v>4089</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>976</v>
+        <v>1095</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>45422</v>
+        <v>46122</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>30875</v>
+        <v>32146</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>33567</v>
+        <v>34981</v>
       </c>
     </row>
     <row r="19">
@@ -2070,31 +2070,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>60760</v>
+        <v>61825</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>47615</v>
+        <v>46858</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>56364</v>
+        <v>57265</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18334</v>
+        <v>18179</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18241</v>
+        <v>18275</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9596</v>
+        <v>8955</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>73551</v>
+        <v>72830</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>57927</v>
+        <v>60099</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>60314</v>
+        <v>60098</v>
       </c>
     </row>
     <row r="20">
@@ -2179,31 +2179,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1900</v>
+        <v>2125</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6916</v>
+        <v>7189</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>15240</v>
+        <v>15300</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3117</v>
+        <v>3275</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>10822</v>
+        <v>10473</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>7338</v>
+        <v>7085</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>8302</v>
+        <v>8295</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>29831</v>
+        <v>29320</v>
       </c>
     </row>
     <row r="23">
@@ -2214,31 +2214,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10676</v>
+        <v>11394</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>20761</v>
+        <v>20844</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>31035</v>
+        <v>31993</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>12346</v>
+        <v>13619</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>7547</v>
+        <v>7264</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>24851</v>
+        <v>24992</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>20524</v>
+        <v>20077</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>23947</v>
+        <v>23598</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>52130</v>
+        <v>51841</v>
       </c>
     </row>
     <row r="24">
@@ -2328,22 +2328,22 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4101</v>
+        <v>4657</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2715</v>
+        <v>2987</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>4820</v>
+        <v>4787</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>3219</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="27">
@@ -2356,25 +2356,25 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>4343</v>
+        <v>4518</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>9704</v>
+        <v>8955</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>17270</v>
+        <v>16990</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>12373</v>
+        <v>12309</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>8725</v>
+        <v>9821</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>18215</v>
+        <v>17326</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>13431</v>
+        <v>13495</v>
       </c>
     </row>
     <row r="28">
@@ -2459,31 +2459,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>99561</v>
+        <v>98214</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>68199</v>
+        <v>69811</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>77311</v>
+        <v>77603</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>26572</v>
+        <v>26780</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>24035</v>
+        <v>23992</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>32931</v>
+        <v>33915</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>130746</v>
+        <v>131570</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>99388</v>
+        <v>99283</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>121012</v>
+        <v>120621</v>
       </c>
     </row>
     <row r="31">
@@ -2494,31 +2494,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>137348</v>
+        <v>136007</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>106098</v>
+        <v>107252</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>112975</v>
+        <v>115216</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>49047</v>
+        <v>47427</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>47037</v>
+        <v>49801</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>59398</v>
+        <v>58818</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>178390</v>
+        <v>176202</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>143443</v>
+        <v>144007</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>164578</v>
+        <v>162270</v>
       </c>
     </row>
     <row r="32">
